--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1937.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1937.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253802790009101</v>
+        <v>0.3724414706230164</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.261360377073288</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.4038999378681183</v>
       </c>
       <c r="D1">
-        <v>1.669516492434349</v>
+        <v>4.334521293640137</v>
       </c>
       <c r="E1">
-        <v>1.148455317618308</v>
+        <v>2.3330237865448</v>
       </c>
     </row>
   </sheetData>
